--- a/backend/src/main/resources/templates/excel/consumption-list.xlsx
+++ b/backend/src/main/resources/templates/excel/consumption-list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malte.schwitters/Projects/privat/eventplanner/backend/src/main/resources/templates/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malte.schwitters/Projects/privat/eventplanner/backend/src/test/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA0B277-87E2-F547-9554-55E24B7DACAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5E89A2-B4B2-1941-87BC-EDABC7F2F989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20300" xr2:uid="{A1AF893E-E741-084A-8472-16ACB7D343C5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
   <si>
     <t>CREW</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Spirituosen</t>
   </si>
   <si>
-    <t>Wasser</t>
-  </si>
-  <si>
     <t>Longdrinks, Sprizz</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
     <t xml:space="preserve">Wein, Sekt </t>
   </si>
   <si>
+    <t>${(crew["${row-2}"?eval].user.fullName)!}</t>
+  </si>
+  <si>
     <t>..</t>
   </si>
   <si>
@@ -80,9 +80,6 @@
     <t xml:space="preserve"> 0,33 l</t>
   </si>
   <si>
-    <t xml:space="preserve"> Softdrink</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0,2 l</t>
   </si>
   <si>
@@ -113,8 +110,10 @@
     <t xml:space="preserve"> 0,60 € </t>
   </si>
   <si>
-    <t>${(crew['${row-2}'?eval].user.nickName)!(crew['${row-2}'?eval].user.firstName)!}
-${(crew['${row-2}'?eval].user.lastName)!}</t>
+    <t xml:space="preserve"> Wasser</t>
+  </si>
+  <si>
+    <t>Softdrink</t>
   </si>
 </sst>
 </file>
@@ -124,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,25 +139,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFC00000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -282,53 +285,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -670,127 +676,119 @@
   </sheetPr>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
-    <col min="10" max="15" width="5.83203125" customWidth="1"/>
-    <col min="16" max="18" width="13.33203125" customWidth="1"/>
+    <col min="1" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="15" width="8.83203125" customWidth="1"/>
+    <col min="16" max="18" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="13" t="s">
+      <c r="G2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="15"/>
-    </row>
-    <row r="3" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -803,38 +801,38 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+    </row>
+    <row r="4" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+    </row>
+    <row r="5" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -847,34 +845,34 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+    </row>
+    <row r="7" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="12"/>
@@ -891,34 +889,34 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+    </row>
+    <row r="9" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="12"/>
@@ -935,34 +933,34 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+    </row>
+    <row r="11" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="12"/>
@@ -979,34 +977,34 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+    </row>
+    <row r="13" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="12"/>
@@ -1023,34 +1021,34 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+    </row>
+    <row r="15" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="12"/>
@@ -1067,34 +1065,34 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+    </row>
+    <row r="17" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="12"/>
@@ -1111,34 +1109,34 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+    </row>
+    <row r="18" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+    </row>
+    <row r="19" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="12"/>
@@ -1155,34 +1153,34 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+    </row>
+    <row r="21" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="12"/>
@@ -1199,34 +1197,34 @@
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+    </row>
+    <row r="22" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+    </row>
+    <row r="23" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="12"/>
@@ -1243,34 +1241,34 @@
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+    </row>
+    <row r="24" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+    </row>
+    <row r="25" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="12"/>
@@ -1287,34 +1285,34 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+    </row>
+    <row r="26" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+    </row>
+    <row r="27" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="12"/>
@@ -1331,34 +1329,34 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-    </row>
-    <row r="29" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+    </row>
+    <row r="28" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+    </row>
+    <row r="29" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="12"/>
@@ -1375,34 +1373,34 @@
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+    </row>
+    <row r="31" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="12"/>
@@ -1419,34 +1417,34 @@
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-    </row>
-    <row r="33" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+    </row>
+    <row r="32" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+    </row>
+    <row r="33" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="12"/>
@@ -1463,34 +1461,34 @@
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-    </row>
-    <row r="35" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+    </row>
+    <row r="34" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+    </row>
+    <row r="35" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="12"/>
@@ -1507,34 +1505,34 @@
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-    </row>
-    <row r="37" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+    </row>
+    <row r="36" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+    </row>
+    <row r="37" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="12"/>
@@ -1551,34 +1549,34 @@
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-    </row>
-    <row r="39" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+    </row>
+    <row r="38" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+    </row>
+    <row r="39" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="12"/>
@@ -1595,34 +1593,34 @@
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-    </row>
-    <row r="41" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+    </row>
+    <row r="40" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+    </row>
+    <row r="41" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="12"/>
@@ -1639,34 +1637,34 @@
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-    </row>
-    <row r="42" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-    </row>
-    <row r="43" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+    </row>
+    <row r="42" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+    </row>
+    <row r="43" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="12"/>
@@ -1683,34 +1681,34 @@
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-    </row>
-    <row r="44" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-    </row>
-    <row r="45" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+    </row>
+    <row r="44" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+    </row>
+    <row r="45" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B45" s="12"/>
@@ -1727,34 +1725,34 @@
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-    </row>
-    <row r="46" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-    </row>
-    <row r="47" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+    </row>
+    <row r="46" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+    </row>
+    <row r="47" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B47" s="12"/>
@@ -1771,34 +1769,34 @@
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-    </row>
-    <row r="48" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-    </row>
-    <row r="49" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+    </row>
+    <row r="48" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+    </row>
+    <row r="49" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="12"/>
@@ -1815,34 +1813,34 @@
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-    </row>
-    <row r="50" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-    </row>
-    <row r="51" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+    </row>
+    <row r="50" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+    </row>
+    <row r="51" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B51" s="12"/>
@@ -1859,132 +1857,40 @@
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-    </row>
-    <row r="52" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-    </row>
-    <row r="53" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-    </row>
-    <row r="54" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-    </row>
-    <row r="55" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-    </row>
-    <row r="56" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-    </row>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+    </row>
+    <row r="52" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+    </row>
+    <row r="53" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="386">
+  <mergeCells count="358">
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="L56:M56"/>
     <mergeCell ref="L52:M52"/>
-    <mergeCell ref="L53:M53"/>
     <mergeCell ref="N46:O46"/>
     <mergeCell ref="N47:O47"/>
     <mergeCell ref="N48:O48"/>
@@ -1995,11 +1901,6 @@
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="H56:I56"/>
     <mergeCell ref="J46:K46"/>
     <mergeCell ref="J47:K47"/>
     <mergeCell ref="J48:K48"/>
@@ -2010,12 +1911,6 @@
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="H48:I48"/>
@@ -2027,17 +1922,8 @@
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
     <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
@@ -2363,6 +2249,6 @@
     <mergeCell ref="J6:K6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>